--- a/BackTest/2020-01-22 BackTest BTC.xlsx
+++ b/BackTest/2020-01-22 BackTest BTC.xlsx
@@ -12430,7 +12430,7 @@
         <v>41.49303340000003</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>44.18673555000003</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>44.86936736000003</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>44.86936736000003</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>44.86936736000003</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>42.61036736000003</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>42.61036736000003</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>45.72126736000003</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>46.70326420000003</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>55.35253743000003</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>55.35253743000003</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>60.54313527000003</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>63.15663527000003</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>69.66666002000004</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>72.56526002000004</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>79.98118489000005</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>76.94488489000005</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>75.61458489000006</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>77.41348489000006</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>81.34898489000007</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>78.02988489000006</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>76.24339935000006</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>74.19684031000006</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>74.19684031000006</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>71.96304031000005</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>68.78296344000006</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>63.09296344000006</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14872,17 +14872,11 @@
         <v>29.37828033000007</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>9852000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14915,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14952,11 +14942,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14989,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15026,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15063,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15100,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15137,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15170,17 +15136,11 @@
         <v>33.06741780000007</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>9850000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15209,17 +15169,11 @@
         <v>29.01407994000007</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>9862000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15248,17 +15202,11 @@
         <v>31.01137994000007</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>9847000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15291,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15328,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15365,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15402,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15439,11 +15371,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15476,11 +15404,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15513,11 +15437,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15550,11 +15470,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15587,11 +15503,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15624,11 +15536,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15661,11 +15569,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15698,11 +15602,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15735,11 +15635,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15772,11 +15668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15809,11 +15701,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15846,11 +15734,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15883,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15920,11 +15800,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15957,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16031,11 +15899,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16068,11 +15932,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16105,11 +15965,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16142,11 +15998,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16179,11 +16031,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16216,11 +16064,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16253,11 +16097,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16290,11 +16130,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16327,11 +16163,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16364,11 +16196,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16401,11 +16229,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16438,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16475,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16512,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16549,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16586,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16623,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16660,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16697,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16734,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16771,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16808,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16845,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16878,17 +16654,11 @@
         <v>14.30238798000008</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>9827000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16917,17 +16687,11 @@
         <v>13.12498798000008</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>9828000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16964,7 +16728,7 @@
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L495" t="n">
@@ -17190,9 +16954,11 @@
         <v>27.59930943000008</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>9842000</v>
+      </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17227,9 +16993,11 @@
         <v>29.06280943000008</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>9832000</v>
+      </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17264,9 +17032,11 @@
         <v>30.58640943000007</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>9844000</v>
+      </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -18004,9 +17774,11 @@
         <v>20.87573671000008</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>9828000</v>
+      </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18041,9 +17813,11 @@
         <v>20.91393671000008</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>9825000</v>
+      </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -18078,9 +17852,11 @@
         <v>21.29803671000008</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>9826000</v>
+      </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18115,9 +17891,11 @@
         <v>21.32413671000008</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>9827000</v>
+      </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18152,9 +17930,11 @@
         <v>21.16103671000008</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>9833000</v>
+      </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18189,9 +17969,11 @@
         <v>21.55173671000007</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>9827000</v>
+      </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18304,9 +18086,11 @@
         <v>22.58638236000007</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>9831000</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18341,9 +18125,11 @@
         <v>21.65478236000007</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>9832000</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18378,9 +18164,11 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>9828000</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18415,9 +18203,11 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>9832000</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18452,9 +18242,11 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>9832000</v>
+      </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18489,9 +18281,11 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>9832000</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18526,9 +18320,11 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>9832000</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -18602,9 +18398,11 @@
         <v>23.86522801000007</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>9837000</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -18639,9 +18437,11 @@
         <v>24.10852801000008</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>9837000</v>
+      </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -18676,9 +18476,11 @@
         <v>24.12202801000008</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>9843000</v>
+      </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -18713,9 +18515,11 @@
         <v>22.44912418000008</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>9845000</v>
+      </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -18750,9 +18554,11 @@
         <v>22.44912418000008</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>9844000</v>
+      </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -18787,9 +18593,11 @@
         <v>22.44912418000008</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>9844000</v>
+      </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -18824,9 +18632,11 @@
         <v>23.57212035000008</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>9844000</v>
+      </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -18861,9 +18671,11 @@
         <v>21.41452035000008</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>9845000</v>
+      </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -18898,9 +18710,11 @@
         <v>23.01512035000008</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>9844000</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -18935,9 +18749,11 @@
         <v>22.07621652000008</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>9845000</v>
+      </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -18972,9 +18788,11 @@
         <v>22.24401652000008</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>9837000</v>
+      </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -21340,16 +21158,18 @@
         <v>23.67008332000007</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L613" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
       <c r="M613" t="inlineStr"/>
     </row>
     <row r="614">
@@ -21375,11 +21195,15 @@
         <v>24.47658332000007</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21412,7 +21236,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21445,7 +21273,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21478,7 +21310,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21511,7 +21347,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21544,7 +21384,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21577,7 +21421,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21610,7 +21458,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21643,7 +21495,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21676,7 +21532,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21709,7 +21569,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21742,7 +21606,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21775,7 +21643,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21808,7 +21680,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21841,7 +21717,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21874,7 +21754,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21907,7 +21791,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21940,7 +21828,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21973,7 +21865,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22006,7 +21902,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22039,7 +21939,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22072,7 +21976,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22105,7 +22013,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22138,7 +22050,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22171,7 +22087,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22204,7 +22124,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22237,7 +22161,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22270,7 +22198,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22303,7 +22235,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22336,7 +22272,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22369,7 +22309,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22402,7 +22346,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22435,7 +22383,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22468,7 +22420,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22501,7 +22457,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22534,7 +22494,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22567,7 +22531,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22600,7 +22568,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22633,7 +22605,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22666,7 +22642,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22699,7 +22679,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22732,7 +22716,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22765,7 +22753,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22798,7 +22790,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22831,7 +22827,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22864,7 +22864,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22897,7 +22901,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22930,7 +22938,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22963,7 +22975,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22996,7 +23012,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23029,7 +23049,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23062,7 +23086,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23095,7 +23123,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23128,7 +23160,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23161,7 +23197,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23194,7 +23234,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23227,7 +23271,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23260,7 +23308,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23293,7 +23345,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23326,7 +23382,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23359,7 +23419,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23392,7 +23456,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23425,7 +23493,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23458,7 +23530,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23491,7 +23567,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23524,7 +23604,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23557,7 +23641,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23590,7 +23678,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23623,7 +23715,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23656,7 +23752,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23689,7 +23789,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23722,7 +23826,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23755,7 +23863,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23788,7 +23900,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23821,7 +23937,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23854,7 +23974,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23887,7 +24011,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23920,7 +24048,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23953,7 +24085,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23986,7 +24122,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24019,7 +24159,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24052,7 +24196,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24085,7 +24233,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24118,7 +24270,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24151,7 +24307,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24184,7 +24344,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24217,7 +24381,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24250,7 +24418,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24283,7 +24455,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24316,7 +24492,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24349,7 +24529,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24382,7 +24566,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24415,7 +24603,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24448,7 +24640,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24481,7 +24677,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24514,7 +24714,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24547,7 +24751,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24580,7 +24788,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24613,7 +24825,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24646,7 +24862,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24679,7 +24899,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24712,7 +24936,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24745,7 +24973,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24778,7 +25010,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24811,7 +25047,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24844,7 +25084,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24877,7 +25121,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24910,7 +25158,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24943,7 +25195,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24976,7 +25232,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25009,7 +25269,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25042,7 +25306,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25075,7 +25343,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25108,7 +25380,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25141,7 +25417,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25174,7 +25454,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25207,7 +25491,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25240,7 +25528,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25273,7 +25565,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25306,7 +25602,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25339,7 +25639,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25372,7 +25676,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25405,7 +25713,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25438,7 +25750,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25471,7 +25787,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25504,7 +25824,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25537,7 +25861,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25570,7 +25898,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25603,7 +25935,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25636,7 +25972,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25669,7 +26009,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25702,7 +26046,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25735,7 +26083,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25768,7 +26120,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25801,7 +26157,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25834,7 +26194,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25867,7 +26231,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25900,7 +26268,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25933,7 +26305,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25966,7 +26342,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25999,7 +26379,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26032,7 +26416,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26065,7 +26453,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26098,7 +26490,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26131,7 +26527,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26164,7 +26564,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26197,7 +26601,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26230,7 +26638,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26263,7 +26675,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26296,7 +26712,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26329,7 +26749,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26362,7 +26786,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26395,7 +26823,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26428,7 +26860,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26461,7 +26897,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26494,7 +26934,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26527,7 +26971,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26560,7 +27008,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26593,7 +27045,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26626,7 +27082,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26659,7 +27119,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26692,7 +27156,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26725,7 +27193,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26758,7 +27230,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26791,7 +27267,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26824,7 +27304,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26857,7 +27341,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26890,7 +27378,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26923,7 +27415,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26956,7 +27452,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26989,7 +27489,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27022,7 +27526,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27055,7 +27563,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27088,7 +27600,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27121,7 +27637,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27154,7 +27674,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27187,7 +27711,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27220,7 +27748,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27253,7 +27785,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27286,7 +27822,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27319,7 +27859,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27352,7 +27896,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27385,7 +27933,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27418,7 +27970,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27451,7 +28007,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27484,7 +28044,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27517,7 +28081,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27550,7 +28118,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27583,7 +28155,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27616,7 +28192,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27649,7 +28229,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27682,7 +28266,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27715,7 +28303,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27748,7 +28340,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27781,7 +28377,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27814,7 +28414,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27847,7 +28451,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27880,7 +28488,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27913,7 +28525,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27946,7 +28562,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27979,7 +28599,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28012,7 +28636,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28045,7 +28673,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28078,7 +28710,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28111,7 +28747,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28144,7 +28784,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28177,7 +28821,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28210,7 +28858,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28243,7 +28895,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28276,7 +28932,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28309,7 +28969,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28342,7 +29006,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28375,7 +29043,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28408,7 +29080,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28441,7 +29117,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28474,7 +29154,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28507,7 +29191,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28540,7 +29228,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28573,7 +29265,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28606,7 +29302,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28639,7 +29339,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28672,7 +29376,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28705,7 +29413,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28738,7 +29450,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28771,7 +29487,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28804,7 +29524,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28837,7 +29561,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28870,7 +29598,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28903,7 +29635,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28936,7 +29672,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28969,7 +29709,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29002,7 +29746,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29035,7 +29783,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29068,7 +29820,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29101,7 +29857,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29134,7 +29894,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29167,7 +29931,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29200,7 +29968,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29233,7 +30005,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29266,7 +30042,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29299,7 +30079,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29332,7 +30116,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29365,7 +30153,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29398,7 +30190,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29431,7 +30227,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29464,7 +30264,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29497,7 +30301,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29530,7 +30338,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29563,7 +30375,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29596,7 +30412,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29629,7 +30449,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29662,7 +30486,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29695,7 +30523,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29728,7 +30560,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29761,7 +30597,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29794,7 +30634,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29827,7 +30671,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29860,7 +30708,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29893,7 +30745,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29926,7 +30782,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29959,7 +30819,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29992,7 +30856,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30025,7 +30893,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30058,7 +30930,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30091,7 +30967,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30124,7 +31004,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30157,7 +31041,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30190,7 +31078,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30223,7 +31115,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30256,7 +31152,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30289,7 +31189,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30322,7 +31226,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30355,7 +31263,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30388,7 +31300,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30421,7 +31337,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30454,7 +31374,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30487,7 +31411,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30520,7 +31448,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30553,7 +31485,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30586,7 +31522,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30619,7 +31559,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30652,7 +31596,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30685,7 +31633,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30718,7 +31670,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30751,7 +31707,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30784,7 +31744,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30817,7 +31781,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30850,7 +31818,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30883,7 +31855,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30916,7 +31892,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30949,7 +31929,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30982,7 +31966,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31015,7 +32003,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31048,7 +32040,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31081,7 +32077,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31114,7 +32114,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31147,7 +32151,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31180,7 +32188,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31213,7 +32225,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31246,7 +32262,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31279,7 +32299,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31312,7 +32336,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31345,7 +32373,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31378,7 +32410,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31411,7 +32447,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31444,7 +32484,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31477,7 +32521,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31510,7 +32558,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31543,7 +32595,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31576,7 +32632,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31609,7 +32669,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31642,7 +32706,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31675,7 +32743,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31708,7 +32780,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31741,7 +32817,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31774,7 +32854,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31807,7 +32891,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31840,7 +32928,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31873,7 +32965,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31906,7 +33002,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31939,7 +33039,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31972,7 +33076,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32005,7 +33113,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32038,7 +33150,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32071,7 +33187,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32104,7 +33224,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32137,7 +33261,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32170,7 +33298,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32203,7 +33335,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32236,7 +33372,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32269,7 +33409,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32302,7 +33446,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32335,7 +33483,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32368,7 +33520,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32401,7 +33557,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32434,7 +33594,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32467,7 +33631,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32500,7 +33668,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32533,7 +33705,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32566,7 +33742,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32599,7 +33779,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32632,7 +33816,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32665,7 +33853,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32698,7 +33890,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32731,7 +33927,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32764,7 +33964,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32797,7 +34001,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32830,7 +34038,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32863,7 +34075,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32896,7 +34112,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32929,7 +34149,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32962,7 +34186,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32995,7 +34223,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33028,7 +34260,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33061,7 +34297,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33094,7 +34334,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33127,7 +34371,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33160,7 +34408,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33193,7 +34445,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33226,7 +34482,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33259,7 +34519,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33292,7 +34556,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33325,7 +34593,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33358,7 +34630,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33391,7 +34667,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33424,7 +34704,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33457,7 +34741,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33490,7 +34778,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33523,7 +34815,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33556,7 +34852,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33589,7 +34889,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33622,7 +34926,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33655,7 +34963,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33688,7 +35000,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33721,7 +35037,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33754,7 +35074,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33787,7 +35111,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33820,7 +35148,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33853,7 +35185,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33886,7 +35222,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33919,7 +35259,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33952,7 +35296,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33985,7 +35333,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34018,7 +35370,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34051,7 +35407,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34084,7 +35444,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34117,7 +35481,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34150,7 +35518,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34183,7 +35555,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34216,7 +35592,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34249,7 +35629,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34282,7 +35666,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34315,7 +35703,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34348,7 +35740,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34381,7 +35777,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34414,7 +35814,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34447,7 +35851,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34480,7 +35888,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34513,7 +35925,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34546,7 +35962,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34579,7 +35999,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34612,7 +36036,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34645,7 +36073,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34678,7 +36110,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34711,7 +36147,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34744,7 +36184,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34777,7 +36221,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34810,7 +36258,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34843,7 +36295,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34876,7 +36332,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34909,7 +36369,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34942,7 +36406,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34975,7 +36443,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35008,7 +36480,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35041,7 +36517,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35074,7 +36554,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35107,7 +36591,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35140,7 +36628,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35173,7 +36665,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35206,7 +36702,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35239,7 +36739,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35272,7 +36776,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35305,7 +36813,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35338,7 +36850,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35371,7 +36887,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35404,7 +36924,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35437,7 +36961,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35470,7 +36998,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35503,7 +37035,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35536,7 +37072,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35569,7 +37109,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35602,7 +37146,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35635,7 +37183,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35668,7 +37220,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35701,7 +37257,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35734,7 +37294,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35767,7 +37331,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35800,7 +37368,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35833,7 +37405,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35866,7 +37442,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35899,7 +37479,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35932,7 +37516,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35965,7 +37553,11 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35998,7 +37590,11 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36031,7 +37627,11 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36064,7 +37664,11 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36097,7 +37701,11 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36130,7 +37738,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36163,7 +37775,11 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36196,7 +37812,11 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36229,7 +37849,11 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36262,7 +37886,11 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36295,7 +37923,11 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36328,7 +37960,11 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36361,7 +37997,11 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36394,7 +38034,11 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36427,7 +38071,11 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36460,7 +38108,11 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36493,7 +38145,11 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36526,7 +38182,11 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36559,7 +38219,11 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36592,7 +38256,11 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36625,7 +38293,11 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36658,7 +38330,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36691,7 +38367,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36724,7 +38404,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36757,7 +38441,11 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36790,7 +38478,11 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36823,7 +38515,11 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36856,7 +38552,11 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36889,7 +38589,11 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36922,7 +38626,11 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36955,7 +38663,11 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36988,7 +38700,11 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37021,7 +38737,11 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -37054,7 +38774,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -37087,7 +38811,11 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -37120,7 +38848,11 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -37153,7 +38885,11 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37186,7 +38922,11 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37219,7 +38959,11 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37252,7 +38996,11 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37285,7 +39033,11 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -37318,7 +39070,11 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -37351,7 +39107,11 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -37384,7 +39144,11 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -37417,7 +39181,11 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37450,7 +39218,11 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37483,7 +39255,11 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -37516,7 +39292,11 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37549,7 +39329,11 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37582,7 +39366,11 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37615,7 +39403,11 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37648,7 +39440,11 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -37681,7 +39477,11 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37714,7 +39514,11 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37747,7 +39551,11 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37780,7 +39588,11 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37813,7 +39625,11 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37846,7 +39662,11 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37879,7 +39699,11 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37908,11 +39732,15 @@
         <v>196.77598246</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37945,10 +39773,12 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
-      <c r="L1116" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1116" t="inlineStr"/>
       <c r="M1116" t="inlineStr"/>
     </row>
     <row r="1117">
@@ -38568,7 +40398,7 @@
         <v>185.94121422</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -38634,7 +40464,7 @@
         <v>183.09091427</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -38898,7 +40728,7 @@
         <v>195.29791424</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -38931,7 +40761,7 @@
         <v>193.26111424</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -38964,7 +40794,7 @@
         <v>194.02371424</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -38997,7 +40827,7 @@
         <v>193.70419564</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -39030,7 +40860,7 @@
         <v>193.70419564</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -39063,7 +40893,7 @@
         <v>196.03109564</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -39096,7 +40926,7 @@
         <v>195.91889564</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -39129,7 +40959,7 @@
         <v>196.96949564</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -39162,7 +40992,7 @@
         <v>199.00859564</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -39195,7 +41025,7 @@
         <v>197.84309564</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -39228,7 +41058,7 @@
         <v>198.01539564</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -39261,7 +41091,7 @@
         <v>198.41789564</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -39294,7 +41124,7 @@
         <v>198.41789564</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -39327,7 +41157,7 @@
         <v>200.90939564</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -39360,7 +41190,7 @@
         <v>198.94791</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -39393,7 +41223,7 @@
         <v>202.25721</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -39426,7 +41256,7 @@
         <v>199.35594538</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -39459,7 +41289,7 @@
         <v>204.06965173</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -39492,7 +41322,7 @@
         <v>205.46655173</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -39525,7 +41355,7 @@
         <v>205.46655173</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -39558,7 +41388,7 @@
         <v>203.90355173</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -39591,7 +41421,7 @@
         <v>188.08245173</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -39624,7 +41454,7 @@
         <v>186.28465173</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -39657,7 +41487,7 @@
         <v>184.37775173</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -39690,7 +41520,7 @@
         <v>181.81435173</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -39723,7 +41553,7 @@
         <v>179.50125173</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
